--- a/nanopore_pipeline_type1/data/qreportデータ.xlsx
+++ b/nanopore_pipeline_type1/data/qreportデータ.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="11550" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="11550" tabRatio="717" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="フロー時間" sheetId="3" r:id="rId1"/>
     <sheet name="qreport1 (フロー)" sheetId="2" r:id="rId2"/>
     <sheet name="qreport2 (medaka)" sheetId="5" r:id="rId3"/>
     <sheet name="qreport3 (chr22)" sheetId="4" r:id="rId4"/>
+    <sheet name="qreport4(mem32)" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'qreport2 (medaka)'!$A$1:$Q$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'qreport4(mem32)'!$A$1:$P$79</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="309">
   <si>
     <t>jobnumber</t>
   </si>
@@ -793,12 +795,202 @@
     <t>r_mem(G)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>yc116i</t>
+  </si>
+  <si>
+    <t>yc089i</t>
+  </si>
+  <si>
+    <t>yc028i</t>
+  </si>
+  <si>
+    <t>yc069i</t>
+  </si>
+  <si>
+    <t>yc129i</t>
+  </si>
+  <si>
+    <t>yc102i</t>
+  </si>
+  <si>
+    <t>singularity_medaka_cpu_split_mem32.sh</t>
+  </si>
+  <si>
+    <t>16.0G</t>
+  </si>
+  <si>
+    <t>16.1G</t>
+  </si>
+  <si>
+    <t>16.3G</t>
+  </si>
+  <si>
+    <t>17.4G</t>
+  </si>
+  <si>
+    <t>16.8G</t>
+  </si>
+  <si>
+    <t>17.7G</t>
+  </si>
+  <si>
+    <t>18.9G</t>
+  </si>
+  <si>
+    <t>chr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>singularity_medaka_cpu_mem32.sh</t>
+  </si>
+  <si>
+    <t>64.1G</t>
+  </si>
+  <si>
+    <t>32.0G</t>
+  </si>
+  <si>
+    <t>64.0G</t>
+  </si>
+  <si>
+    <t>yc096i</t>
+  </si>
+  <si>
+    <t>18.1G</t>
+  </si>
+  <si>
+    <t>yc031i</t>
+  </si>
+  <si>
+    <t>yc048i</t>
+  </si>
+  <si>
+    <t>22.0G</t>
+  </si>
+  <si>
+    <t>17.5G</t>
+  </si>
+  <si>
+    <t>17.2G</t>
+  </si>
+  <si>
+    <t>yc091i</t>
+  </si>
+  <si>
+    <t>21.1G</t>
+  </si>
+  <si>
+    <t>gc327i</t>
+  </si>
+  <si>
+    <t>17.8G</t>
+  </si>
+  <si>
+    <t>17.6G</t>
+  </si>
+  <si>
+    <t>gc306i</t>
+  </si>
+  <si>
+    <t>2.1G</t>
+  </si>
+  <si>
+    <t>gc279i</t>
+  </si>
+  <si>
+    <t>gc249i</t>
+  </si>
+  <si>
+    <t>17.9G</t>
+  </si>
+  <si>
+    <t>yc086i</t>
+  </si>
+  <si>
+    <t>21.5G</t>
+  </si>
+  <si>
+    <t>yc097i</t>
+  </si>
+  <si>
+    <t>yc078i</t>
+  </si>
+  <si>
+    <t>21.6G</t>
+  </si>
+  <si>
+    <t>gc251i</t>
+  </si>
+  <si>
+    <t>gc258i</t>
+  </si>
+  <si>
+    <t>gc301i</t>
+  </si>
+  <si>
+    <t>gc242i</t>
+  </si>
+  <si>
+    <t>gc254i</t>
+  </si>
+  <si>
+    <t>gc261i</t>
+  </si>
+  <si>
+    <t>20.4G</t>
+  </si>
+  <si>
+    <t>gc255i</t>
+  </si>
+  <si>
+    <t>gc266i</t>
+  </si>
+  <si>
+    <t>gc267i</t>
+  </si>
+  <si>
+    <t>gc320i</t>
+  </si>
+  <si>
+    <t>gc289i</t>
+  </si>
+  <si>
+    <t>17.3G</t>
+  </si>
+  <si>
+    <t>18.3G</t>
+  </si>
+  <si>
+    <t>29.1G</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HG002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yc121i</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,6 +1021,36 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -945,7 +1167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,6 +1241,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1972,7 +2209,7 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="12.625" customWidth="1"/>
@@ -1981,27 +2218,27 @@
     <col min="11" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="I1" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="I2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="I3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="14.25" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="32.25" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>174</v>
       </c>
@@ -2036,7 +2273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="32.25" thickBot="1">
       <c r="A6" s="9" t="s">
         <v>178</v>
       </c>
@@ -2071,7 +2308,7 @@
         <v>0.42005787037037035</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="27.75" thickBot="1">
       <c r="A7" s="13" t="s">
         <v>186</v>
       </c>
@@ -2106,7 +2343,7 @@
         <v>2.4037037037037039</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="27.75" thickBot="1">
       <c r="A8" s="10" t="s">
         <v>188</v>
       </c>
@@ -2141,7 +2378,7 @@
         <v>0.30055555555555552</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="27.75" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>189</v>
       </c>
@@ -2176,7 +2413,7 @@
         <v>0.39929398148148149</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>193</v>
       </c>
@@ -2214,7 +2451,7 @@
         <v>3.5236111111111112</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="22" t="s">
         <v>195</v>
       </c>
@@ -2256,10 +2493,10 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="M10" sqref="M10:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
@@ -2268,7 +2505,7 @@
     <col min="8" max="10" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2315,12 +2552,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>29030938</v>
       </c>
@@ -2367,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>29030939</v>
       </c>
@@ -2414,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>29120968</v>
       </c>
@@ -2461,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>29128639</v>
       </c>
@@ -2508,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>29120980</v>
       </c>
@@ -2555,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>29120981</v>
       </c>
@@ -2602,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>29090459</v>
       </c>
@@ -2649,7 +2886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>29090460</v>
       </c>
@@ -2696,7 +2933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>29143526</v>
       </c>
@@ -2743,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>29141109</v>
       </c>
@@ -2790,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>29143552</v>
       </c>
@@ -2837,7 +3074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>29134437</v>
       </c>
@@ -2884,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>29173281</v>
       </c>
@@ -2931,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>29207657</v>
       </c>
@@ -2978,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>29197248</v>
       </c>
@@ -3025,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>29186260</v>
       </c>
@@ -3072,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>29207659</v>
       </c>
@@ -3119,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>29201011</v>
       </c>
@@ -3180,11 +3417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
@@ -3193,7 +3430,7 @@
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3243,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>29210652</v>
       </c>
@@ -3290,7 +3527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>29212750</v>
       </c>
@@ -3337,7 +3574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>29211834</v>
       </c>
@@ -3387,7 +3624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>29211835</v>
       </c>
@@ -3437,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>29211836</v>
       </c>
@@ -3487,7 +3724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>29211837</v>
       </c>
@@ -3537,7 +3774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>29211838</v>
       </c>
@@ -3587,7 +3824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>29211839</v>
       </c>
@@ -3637,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>29211840</v>
       </c>
@@ -3687,7 +3924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>29211841</v>
       </c>
@@ -3737,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>29211843</v>
       </c>
@@ -3787,7 +4024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>29211844</v>
       </c>
@@ -3837,7 +4074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>29211845</v>
       </c>
@@ -3887,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>29211846</v>
       </c>
@@ -3937,7 +4174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>29211848</v>
       </c>
@@ -3987,7 +4224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>29211849</v>
       </c>
@@ -4037,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>29211850</v>
       </c>
@@ -4087,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>29211851</v>
       </c>
@@ -4137,7 +4374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>29211852</v>
       </c>
@@ -4187,7 +4424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>29211853</v>
       </c>
@@ -4237,7 +4474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>29211854</v>
       </c>
@@ -4287,7 +4524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>29211855</v>
       </c>
@@ -4337,7 +4574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>29211856</v>
       </c>
@@ -4387,7 +4624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>29211857</v>
       </c>
@@ -4437,7 +4674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>29211858</v>
       </c>
@@ -4487,7 +4724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:16" s="23" customFormat="1">
       <c r="A27" s="23">
         <v>29212075</v>
       </c>
@@ -4537,7 +4774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>29211931</v>
       </c>
@@ -4584,7 +4821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>29212752</v>
       </c>
@@ -4631,7 +4868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>29211934</v>
       </c>
@@ -4681,7 +4918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>29211935</v>
       </c>
@@ -4731,7 +4968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>29211936</v>
       </c>
@@ -4781,7 +5018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>29211937</v>
       </c>
@@ -4831,7 +5068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>29211938</v>
       </c>
@@ -4881,7 +5118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>29211939</v>
       </c>
@@ -4931,7 +5168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>29211940</v>
       </c>
@@ -4981,7 +5218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>29211941</v>
       </c>
@@ -5031,7 +5268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>29211942</v>
       </c>
@@ -5081,7 +5318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>29211943</v>
       </c>
@@ -5131,7 +5368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>29211944</v>
       </c>
@@ -5181,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>29211945</v>
       </c>
@@ -5231,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>29211946</v>
       </c>
@@ -5281,7 +5518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>29211947</v>
       </c>
@@ -5331,7 +5568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>29211948</v>
       </c>
@@ -5381,7 +5618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>29211949</v>
       </c>
@@ -5431,7 +5668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>29211950</v>
       </c>
@@ -5481,7 +5718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>29211951</v>
       </c>
@@ -5531,7 +5768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>29211952</v>
       </c>
@@ -5581,7 +5818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>29211953</v>
       </c>
@@ -5631,7 +5868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>29211954</v>
       </c>
@@ -5681,7 +5918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>29211955</v>
       </c>
@@ -5731,7 +5968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>29211956</v>
       </c>
@@ -5781,7 +6018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>29211957</v>
       </c>
@@ -5831,7 +6068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>29211958</v>
       </c>
@@ -5878,7 +6115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>29212753</v>
       </c>
@@ -5925,7 +6162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>29211960</v>
       </c>
@@ -5975,7 +6212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>29211961</v>
       </c>
@@ -6025,7 +6262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>29211962</v>
       </c>
@@ -6075,7 +6312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>29211963</v>
       </c>
@@ -6125,7 +6362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>29211964</v>
       </c>
@@ -6175,7 +6412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>29211965</v>
       </c>
@@ -6225,7 +6462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>29211967</v>
       </c>
@@ -6275,7 +6512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:16" s="23" customFormat="1">
       <c r="A63" s="23">
         <v>30411535</v>
       </c>
@@ -6325,7 +6562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>29211971</v>
       </c>
@@ -6375,7 +6612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>29211973</v>
       </c>
@@ -6425,7 +6662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>29211975</v>
       </c>
@@ -6475,7 +6712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>29211977</v>
       </c>
@@ -6525,7 +6762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>29211979</v>
       </c>
@@ -6575,7 +6812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>29211981</v>
       </c>
@@ -6625,7 +6862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>29211983</v>
       </c>
@@ -6675,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>29211985</v>
       </c>
@@ -6725,7 +6962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>29211987</v>
       </c>
@@ -6775,7 +7012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>29211989</v>
       </c>
@@ -6825,7 +7062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>29211991</v>
       </c>
@@ -6875,7 +7112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>29211992</v>
       </c>
@@ -6925,7 +7162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>29211994</v>
       </c>
@@ -6975,7 +7212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>29211996</v>
       </c>
@@ -7025,7 +7262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>29211998</v>
       </c>
@@ -7075,7 +7312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>29212000</v>
       </c>
@@ -7125,7 +7362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>29402715</v>
       </c>
@@ -7172,7 +7409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>29402716</v>
       </c>
@@ -7219,7 +7456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>29402718</v>
       </c>
@@ -7269,7 +7506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>29402719</v>
       </c>
@@ -7319,7 +7556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>29402720</v>
       </c>
@@ -7369,7 +7606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>29402721</v>
       </c>
@@ -7419,7 +7656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>29402722</v>
       </c>
@@ -7469,7 +7706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>29402723</v>
       </c>
@@ -7519,7 +7756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>29402724</v>
       </c>
@@ -7569,7 +7806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>29402725</v>
       </c>
@@ -7619,7 +7856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>29402726</v>
       </c>
@@ -7669,7 +7906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>29402727</v>
       </c>
@@ -7719,7 +7956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>29402728</v>
       </c>
@@ -7769,7 +8006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>29402729</v>
       </c>
@@ -7819,7 +8056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>29402730</v>
       </c>
@@ -7869,7 +8106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>29402731</v>
       </c>
@@ -7919,7 +8156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>29402732</v>
       </c>
@@ -7969,7 +8206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>29402733</v>
       </c>
@@ -8019,7 +8256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>29402734</v>
       </c>
@@ -8069,7 +8306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>29402740</v>
       </c>
@@ -8119,7 +8356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>29402741</v>
       </c>
@@ -8169,7 +8406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>29402742</v>
       </c>
@@ -8219,7 +8456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>29402743</v>
       </c>
@@ -8269,7 +8506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>29402744</v>
       </c>
@@ -8319,7 +8556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>29402745</v>
       </c>
@@ -8369,7 +8606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>29402746</v>
       </c>
@@ -8419,7 +8656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>29402799</v>
       </c>
@@ -8466,7 +8703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>29402800</v>
       </c>
@@ -8513,7 +8750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>29402748</v>
       </c>
@@ -8563,7 +8800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>29402749</v>
       </c>
@@ -8613,7 +8850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:16" s="23" customFormat="1">
       <c r="A110" s="23">
         <v>30283781</v>
       </c>
@@ -8663,7 +8900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>29402751</v>
       </c>
@@ -8713,7 +8950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>29402752</v>
       </c>
@@ -8763,7 +9000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>29402753</v>
       </c>
@@ -8813,7 +9050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>29402754</v>
       </c>
@@ -8863,7 +9100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>29402755</v>
       </c>
@@ -8913,7 +9150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>29402756</v>
       </c>
@@ -8963,7 +9200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>29402757</v>
       </c>
@@ -9013,7 +9250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>29402758</v>
       </c>
@@ -9063,7 +9300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>29402759</v>
       </c>
@@ -9113,7 +9350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>29402760</v>
       </c>
@@ -9163,7 +9400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>29402761</v>
       </c>
@@ -9213,7 +9450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>29402762</v>
       </c>
@@ -9263,7 +9500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>29402763</v>
       </c>
@@ -9313,7 +9550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:16">
       <c r="A124">
         <v>29402764</v>
       </c>
@@ -9363,7 +9600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:16">
       <c r="A125">
         <v>29402765</v>
       </c>
@@ -9413,7 +9650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:16">
       <c r="A126">
         <v>29402766</v>
       </c>
@@ -9463,7 +9700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:16">
       <c r="A127">
         <v>29402767</v>
       </c>
@@ -9513,7 +9750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:16">
       <c r="A128">
         <v>29402768</v>
       </c>
@@ -9563,7 +9800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:16">
       <c r="A129">
         <v>29402769</v>
       </c>
@@ -9613,7 +9850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:16">
       <c r="A130">
         <v>29402770</v>
       </c>
@@ -9663,7 +9900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:16">
       <c r="A131">
         <v>29402771</v>
       </c>
@@ -9713,7 +9950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:16">
       <c r="A132">
         <v>29402802</v>
       </c>
@@ -9760,7 +9997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:16">
       <c r="A133">
         <v>29402801</v>
       </c>
@@ -9807,7 +10044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:16">
       <c r="A134">
         <v>29402773</v>
       </c>
@@ -9857,7 +10094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:16">
       <c r="A135">
         <v>29402774</v>
       </c>
@@ -9907,7 +10144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:16">
       <c r="A136">
         <v>29402775</v>
       </c>
@@ -9957,7 +10194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:16">
       <c r="A137">
         <v>29402776</v>
       </c>
@@ -10007,7 +10244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:16">
       <c r="A138">
         <v>29402777</v>
       </c>
@@ -10057,7 +10294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:16">
       <c r="A139">
         <v>29402778</v>
       </c>
@@ -10107,7 +10344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:16">
       <c r="A140">
         <v>29402779</v>
       </c>
@@ -10157,7 +10394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:16">
       <c r="A141">
         <v>29402780</v>
       </c>
@@ -10207,7 +10444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:16">
       <c r="A142">
         <v>29402781</v>
       </c>
@@ -10257,7 +10494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:16">
       <c r="A143">
         <v>29402782</v>
       </c>
@@ -10307,7 +10544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:16">
       <c r="A144">
         <v>29402783</v>
       </c>
@@ -10357,7 +10594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:16">
       <c r="A145">
         <v>29402785</v>
       </c>
@@ -10407,7 +10644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:16">
       <c r="A146">
         <v>29402786</v>
       </c>
@@ -10457,7 +10694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:16">
       <c r="A147">
         <v>29402787</v>
       </c>
@@ -10507,7 +10744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:16">
       <c r="A148">
         <v>29402788</v>
       </c>
@@ -10557,7 +10794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:16">
       <c r="A149">
         <v>29402789</v>
       </c>
@@ -10607,7 +10844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:16">
       <c r="A150">
         <v>29402790</v>
       </c>
@@ -10657,7 +10894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:16">
       <c r="A151">
         <v>29402791</v>
       </c>
@@ -10707,7 +10944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:16">
       <c r="A152">
         <v>29402792</v>
       </c>
@@ -10757,7 +10994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:16">
       <c r="A153">
         <v>29402793</v>
       </c>
@@ -10807,7 +11044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:16">
       <c r="A154">
         <v>29402794</v>
       </c>
@@ -10857,7 +11094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:16">
       <c r="A155">
         <v>29402795</v>
       </c>
@@ -10907,7 +11144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:16">
       <c r="A156">
         <v>29402796</v>
       </c>
@@ -10957,7 +11194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:16">
       <c r="A157">
         <v>29402797</v>
       </c>
@@ -11007,7 +11244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:16">
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
@@ -11027,14 +11264,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11081,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>30376998</v>
       </c>
@@ -11128,7 +11365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>30382793</v>
       </c>
@@ -11175,7 +11412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>30380489</v>
       </c>
@@ -11222,7 +11459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>30380545</v>
       </c>
@@ -11269,7 +11506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>30380550</v>
       </c>
@@ -11316,7 +11553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>30382596</v>
       </c>
@@ -11363,7 +11600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>30382608</v>
       </c>
@@ -11410,7 +11647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>30382619</v>
       </c>
@@ -11461,4 +11698,3836 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>30595050</v>
+      </c>
+      <c r="C2">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44209.448194444441</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44209.462199074071</v>
+      </c>
+      <c r="K2" s="1">
+        <v>44213.204918981479</v>
+      </c>
+      <c r="L2">
+        <v>0.34</v>
+      </c>
+      <c r="M2">
+        <v>89.83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" t="s">
+        <v>266</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>30652160</v>
+      </c>
+      <c r="C3">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44211.513796296298</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44212.760879629626</v>
+      </c>
+      <c r="L3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M3">
+        <v>28.77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>267</v>
+      </c>
+      <c r="O3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>30652132</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44211.512465277781</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44211.513564814813</v>
+      </c>
+      <c r="K5" s="1">
+        <v>44211.912534722222</v>
+      </c>
+      <c r="L5">
+        <v>0.03</v>
+      </c>
+      <c r="M5">
+        <v>9.58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>269</v>
+      </c>
+      <c r="O5" t="s">
+        <v>255</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>30652133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44211.512476851851</v>
+      </c>
+      <c r="J6" s="1">
+        <v>44211.513912037037</v>
+      </c>
+      <c r="K6" s="1">
+        <v>44211.912442129629</v>
+      </c>
+      <c r="L6">
+        <v>0.03</v>
+      </c>
+      <c r="M6">
+        <v>9.56</v>
+      </c>
+      <c r="N6" t="s">
+        <v>256</v>
+      </c>
+      <c r="O6" t="s">
+        <v>255</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>30652134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44211.512476851851</v>
+      </c>
+      <c r="J7" s="1">
+        <v>44211.514965277776</v>
+      </c>
+      <c r="K7" s="1">
+        <v>44211.844861111109</v>
+      </c>
+      <c r="L7">
+        <v>0.06</v>
+      </c>
+      <c r="M7">
+        <v>7.92</v>
+      </c>
+      <c r="N7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>30652135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44211.512488425928</v>
+      </c>
+      <c r="J8" s="1">
+        <v>44211.515949074077</v>
+      </c>
+      <c r="K8" s="1">
+        <v>44211.834108796298</v>
+      </c>
+      <c r="L8">
+        <v>0.08</v>
+      </c>
+      <c r="M8">
+        <v>7.64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>256</v>
+      </c>
+      <c r="O8" t="s">
+        <v>255</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>30652136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44211.512488425928</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44211.516296296293</v>
+      </c>
+      <c r="K9" s="1">
+        <v>44211.803923611114</v>
+      </c>
+      <c r="L9">
+        <v>0.09</v>
+      </c>
+      <c r="M9">
+        <v>6.9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>272</v>
+      </c>
+      <c r="O9" t="s">
+        <v>255</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>30652137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44211.512499999997</v>
+      </c>
+      <c r="J10" s="1">
+        <v>44211.518611111111</v>
+      </c>
+      <c r="K10" s="1">
+        <v>44211.802199074074</v>
+      </c>
+      <c r="L10">
+        <v>0.15</v>
+      </c>
+      <c r="M10">
+        <v>6.81</v>
+      </c>
+      <c r="N10" t="s">
+        <v>255</v>
+      </c>
+      <c r="O10" t="s">
+        <v>255</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>30652138</v>
+      </c>
+      <c r="B11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44211.512499999997</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44211.518611111111</v>
+      </c>
+      <c r="K11" s="1">
+        <v>44211.799861111111</v>
+      </c>
+      <c r="L11">
+        <v>0.15</v>
+      </c>
+      <c r="M11">
+        <v>6.75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>256</v>
+      </c>
+      <c r="O11" t="s">
+        <v>255</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>30652139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44211.512499999997</v>
+      </c>
+      <c r="J12" s="1">
+        <v>44211.524675925924</v>
+      </c>
+      <c r="K12" s="1">
+        <v>44211.722060185188</v>
+      </c>
+      <c r="L12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M12">
+        <v>4.74</v>
+      </c>
+      <c r="N12" t="s">
+        <v>273</v>
+      </c>
+      <c r="O12" t="s">
+        <v>255</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>30652140</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44211.512511574074</v>
+      </c>
+      <c r="J13" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="K13" s="1">
+        <v>44211.725590277776</v>
+      </c>
+      <c r="L13">
+        <v>0.31</v>
+      </c>
+      <c r="M13">
+        <v>4.8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>256</v>
+      </c>
+      <c r="O13" t="s">
+        <v>255</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>30652142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" t="s">
+        <v>227</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44211.512511574074</v>
+      </c>
+      <c r="J14" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="K14" s="1">
+        <v>44211.73914351852</v>
+      </c>
+      <c r="L14">
+        <v>0.31</v>
+      </c>
+      <c r="M14">
+        <v>5.13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>274</v>
+      </c>
+      <c r="O14" t="s">
+        <v>255</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>30652143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>248</v>
+      </c>
+      <c r="G15" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" t="s">
+        <v>228</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44211.512523148151</v>
+      </c>
+      <c r="J15" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="K15" s="1">
+        <v>44211.736122685186</v>
+      </c>
+      <c r="L15">
+        <v>0.31</v>
+      </c>
+      <c r="M15">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="N15" t="s">
+        <v>255</v>
+      </c>
+      <c r="O15" t="s">
+        <v>255</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>30652144</v>
+      </c>
+      <c r="B16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44211.512523148151</v>
+      </c>
+      <c r="J16" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="K16" s="1">
+        <v>44211.736851851849</v>
+      </c>
+      <c r="L16">
+        <v>0.31</v>
+      </c>
+      <c r="M16">
+        <v>5.08</v>
+      </c>
+      <c r="N16" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16" t="s">
+        <v>255</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>30652145</v>
+      </c>
+      <c r="B17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" t="s">
+        <v>254</v>
+      </c>
+      <c r="H17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44211.51253472222</v>
+      </c>
+      <c r="J17" s="1">
+        <v>44211.525381944448</v>
+      </c>
+      <c r="K17" s="1">
+        <v>44211.676712962966</v>
+      </c>
+      <c r="L17">
+        <v>0.31</v>
+      </c>
+      <c r="M17">
+        <v>3.63</v>
+      </c>
+      <c r="N17" t="s">
+        <v>97</v>
+      </c>
+      <c r="O17" t="s">
+        <v>255</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>30652146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G18" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" t="s">
+        <v>231</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44211.51253472222</v>
+      </c>
+      <c r="J18" s="1">
+        <v>44211.527106481481</v>
+      </c>
+      <c r="K18" s="1">
+        <v>44211.669050925928</v>
+      </c>
+      <c r="L18">
+        <v>0.35</v>
+      </c>
+      <c r="M18">
+        <v>3.41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O18" t="s">
+        <v>255</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>30652147</v>
+      </c>
+      <c r="B19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" t="s">
+        <v>232</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44211.512546296297</v>
+      </c>
+      <c r="J19" s="1">
+        <v>44211.533356481479</v>
+      </c>
+      <c r="K19" s="1">
+        <v>44211.672638888886</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>3.34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>255</v>
+      </c>
+      <c r="O19" t="s">
+        <v>255</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>30652148</v>
+      </c>
+      <c r="B20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" t="s">
+        <v>233</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44211.512546296297</v>
+      </c>
+      <c r="J20" s="1">
+        <v>44211.533356481479</v>
+      </c>
+      <c r="K20" s="1">
+        <v>44211.68341435185</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>3.6</v>
+      </c>
+      <c r="N20" t="s">
+        <v>256</v>
+      </c>
+      <c r="O20" t="s">
+        <v>255</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>30652149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>254</v>
+      </c>
+      <c r="H21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44211.512557870374</v>
+      </c>
+      <c r="J21" s="1">
+        <v>44211.534143518518</v>
+      </c>
+      <c r="K21" s="1">
+        <v>44211.688101851854</v>
+      </c>
+      <c r="L21">
+        <v>0.52</v>
+      </c>
+      <c r="M21">
+        <v>3.69</v>
+      </c>
+      <c r="N21" t="s">
+        <v>257</v>
+      </c>
+      <c r="O21" t="s">
+        <v>255</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>30652150</v>
+      </c>
+      <c r="B22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>254</v>
+      </c>
+      <c r="H22" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44211.512557870374</v>
+      </c>
+      <c r="J22" s="1">
+        <v>44211.544131944444</v>
+      </c>
+      <c r="K22" s="1">
+        <v>44211.681712962964</v>
+      </c>
+      <c r="L22">
+        <v>0.76</v>
+      </c>
+      <c r="M22">
+        <v>3.3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>255</v>
+      </c>
+      <c r="O22" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>30652151</v>
+      </c>
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>254</v>
+      </c>
+      <c r="H23" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44211.512569444443</v>
+      </c>
+      <c r="J23" s="1">
+        <v>44211.546215277776</v>
+      </c>
+      <c r="K23" s="1">
+        <v>44211.6175</v>
+      </c>
+      <c r="L23">
+        <v>0.81</v>
+      </c>
+      <c r="M23">
+        <v>1.71</v>
+      </c>
+      <c r="N23" t="s">
+        <v>258</v>
+      </c>
+      <c r="O23" t="s">
+        <v>255</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>30652152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" t="s">
+        <v>254</v>
+      </c>
+      <c r="H24" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44211.512569444443</v>
+      </c>
+      <c r="J24" s="1">
+        <v>44211.553854166668</v>
+      </c>
+      <c r="K24" s="1">
+        <v>44211.674108796295</v>
+      </c>
+      <c r="L24">
+        <v>0.99</v>
+      </c>
+      <c r="M24">
+        <v>2.89</v>
+      </c>
+      <c r="N24" t="s">
+        <v>256</v>
+      </c>
+      <c r="O24" t="s">
+        <v>255</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>30652153</v>
+      </c>
+      <c r="B25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H25" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44211.51258101852</v>
+      </c>
+      <c r="J25" s="1">
+        <v>44211.556967592594</v>
+      </c>
+      <c r="K25" s="1">
+        <v>44211.62773148148</v>
+      </c>
+      <c r="L25">
+        <v>1.07</v>
+      </c>
+      <c r="M25">
+        <v>1.7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>255</v>
+      </c>
+      <c r="O25" t="s">
+        <v>255</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>30652154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>254</v>
+      </c>
+      <c r="H26" t="s">
+        <v>239</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44211.51258101852</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44211.558703703704</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44211.613240740742</v>
+      </c>
+      <c r="L26">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M26">
+        <v>1.31</v>
+      </c>
+      <c r="N26" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>30652156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" t="s">
+        <v>254</v>
+      </c>
+      <c r="H27" t="s">
+        <v>240</v>
+      </c>
+      <c r="I27" s="1">
+        <v>44211.512592592589</v>
+      </c>
+      <c r="J27" s="1">
+        <v>44211.559745370374</v>
+      </c>
+      <c r="K27" s="1">
+        <v>44211.805706018517</v>
+      </c>
+      <c r="L27">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M27">
+        <v>5.9</v>
+      </c>
+      <c r="N27" t="s">
+        <v>114</v>
+      </c>
+      <c r="O27" t="s">
+        <v>255</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>30652157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" t="s">
+        <v>244</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44211.512592592589</v>
+      </c>
+      <c r="J28" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K28" s="1">
+        <v>44211.569131944445</v>
+      </c>
+      <c r="L28">
+        <v>1.19</v>
+      </c>
+      <c r="M28">
+        <v>0.17</v>
+      </c>
+      <c r="N28" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" t="s">
+        <v>255</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>30656651</v>
+      </c>
+      <c r="B29" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" t="s">
+        <v>218</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44211.688310185185</v>
+      </c>
+      <c r="J29" s="1">
+        <v>44211.690266203703</v>
+      </c>
+      <c r="K29" s="1">
+        <v>44212.070115740738</v>
+      </c>
+      <c r="L29">
+        <v>0.05</v>
+      </c>
+      <c r="M29">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>255</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>30656653</v>
+      </c>
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>290</v>
+      </c>
+      <c r="G30" t="s">
+        <v>254</v>
+      </c>
+      <c r="H30" t="s">
+        <v>219</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44211.688321759262</v>
+      </c>
+      <c r="J30" s="1">
+        <v>44211.694861111115</v>
+      </c>
+      <c r="K30" s="1">
+        <v>44211.986319444448</v>
+      </c>
+      <c r="L30">
+        <v>0.16</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30" t="s">
+        <v>260</v>
+      </c>
+      <c r="O30" t="s">
+        <v>255</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>30656655</v>
+      </c>
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44211.688321759262</v>
+      </c>
+      <c r="J31" s="1">
+        <v>44211.694861111115</v>
+      </c>
+      <c r="K31" s="1">
+        <v>44211.930428240739</v>
+      </c>
+      <c r="L31">
+        <v>0.16</v>
+      </c>
+      <c r="M31">
+        <v>5.65</v>
+      </c>
+      <c r="N31" t="s">
+        <v>260</v>
+      </c>
+      <c r="O31" t="s">
+        <v>255</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>30656657</v>
+      </c>
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44211.688333333332</v>
+      </c>
+      <c r="J32" s="1">
+        <v>44211.694861111115</v>
+      </c>
+      <c r="K32" s="1">
+        <v>44211.917280092595</v>
+      </c>
+      <c r="L32">
+        <v>0.16</v>
+      </c>
+      <c r="M32">
+        <v>5.34</v>
+      </c>
+      <c r="N32" t="s">
+        <v>279</v>
+      </c>
+      <c r="O32" t="s">
+        <v>255</v>
+      </c>
+      <c r="P32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>30656659</v>
+      </c>
+      <c r="B33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" t="s">
+        <v>254</v>
+      </c>
+      <c r="H33" t="s">
+        <v>222</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44211.688333333332</v>
+      </c>
+      <c r="J33" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K33" s="1">
+        <v>44211.899039351854</v>
+      </c>
+      <c r="L33">
+        <v>0.16</v>
+      </c>
+      <c r="M33">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="N33" t="s">
+        <v>273</v>
+      </c>
+      <c r="O33" t="s">
+        <v>255</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>30656661</v>
+      </c>
+      <c r="B34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>294</v>
+      </c>
+      <c r="G34" t="s">
+        <v>254</v>
+      </c>
+      <c r="H34" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44211.688344907408</v>
+      </c>
+      <c r="J34" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K34" s="1">
+        <v>44211.910752314812</v>
+      </c>
+      <c r="L34">
+        <v>0.16</v>
+      </c>
+      <c r="M34">
+        <v>5.17</v>
+      </c>
+      <c r="N34" t="s">
+        <v>273</v>
+      </c>
+      <c r="O34" t="s">
+        <v>255</v>
+      </c>
+      <c r="P34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>30656663</v>
+      </c>
+      <c r="B35" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" t="s">
+        <v>254</v>
+      </c>
+      <c r="H35" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="1">
+        <v>44211.688344907408</v>
+      </c>
+      <c r="J35" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K35" s="1">
+        <v>44211.88957175926</v>
+      </c>
+      <c r="L35">
+        <v>0.16</v>
+      </c>
+      <c r="M35">
+        <v>4.67</v>
+      </c>
+      <c r="N35" t="s">
+        <v>279</v>
+      </c>
+      <c r="O35" t="s">
+        <v>255</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>30656665</v>
+      </c>
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" t="s">
+        <v>225</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44211.688356481478</v>
+      </c>
+      <c r="J36" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K36" s="1">
+        <v>44211.87195601852</v>
+      </c>
+      <c r="L36">
+        <v>0.16</v>
+      </c>
+      <c r="M36">
+        <v>4.24</v>
+      </c>
+      <c r="N36" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>30656667</v>
+      </c>
+      <c r="B37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" t="s">
+        <v>226</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44211.688356481478</v>
+      </c>
+      <c r="J37" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K37" s="1">
+        <v>44211.851458333331</v>
+      </c>
+      <c r="L37">
+        <v>0.16</v>
+      </c>
+      <c r="M37">
+        <v>3.75</v>
+      </c>
+      <c r="N37" t="s">
+        <v>296</v>
+      </c>
+      <c r="O37" t="s">
+        <v>255</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>30656669</v>
+      </c>
+      <c r="B38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" t="s">
+        <v>227</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44211.688368055555</v>
+      </c>
+      <c r="J38" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K38" s="1">
+        <v>44211.865694444445</v>
+      </c>
+      <c r="L38">
+        <v>0.16</v>
+      </c>
+      <c r="M38">
+        <v>4.09</v>
+      </c>
+      <c r="N38" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" t="s">
+        <v>255</v>
+      </c>
+      <c r="P38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>30656671</v>
+      </c>
+      <c r="B39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>254</v>
+      </c>
+      <c r="H39" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44211.688368055555</v>
+      </c>
+      <c r="J39" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K39" s="1">
+        <v>44211.859930555554</v>
+      </c>
+      <c r="L39">
+        <v>0.16</v>
+      </c>
+      <c r="M39">
+        <v>3.95</v>
+      </c>
+      <c r="N39" t="s">
+        <v>260</v>
+      </c>
+      <c r="O39" t="s">
+        <v>255</v>
+      </c>
+      <c r="P39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>30656673</v>
+      </c>
+      <c r="B40" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" t="s">
+        <v>229</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44211.688368055555</v>
+      </c>
+      <c r="J40" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K40" s="1">
+        <v>44211.855254629627</v>
+      </c>
+      <c r="L40">
+        <v>0.16</v>
+      </c>
+      <c r="M40">
+        <v>3.84</v>
+      </c>
+      <c r="N40" t="s">
+        <v>258</v>
+      </c>
+      <c r="O40" t="s">
+        <v>255</v>
+      </c>
+      <c r="P40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>30656675</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" t="s">
+        <v>254</v>
+      </c>
+      <c r="H41" t="s">
+        <v>230</v>
+      </c>
+      <c r="I41" s="1">
+        <v>44211.688379629632</v>
+      </c>
+      <c r="J41" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K41" s="1">
+        <v>44211.81459490741</v>
+      </c>
+      <c r="L41">
+        <v>0.16</v>
+      </c>
+      <c r="M41">
+        <v>2.87</v>
+      </c>
+      <c r="N41" t="s">
+        <v>258</v>
+      </c>
+      <c r="O41" t="s">
+        <v>255</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>30656677</v>
+      </c>
+      <c r="B42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>254</v>
+      </c>
+      <c r="H42" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44211.688379629632</v>
+      </c>
+      <c r="J42" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K42" s="1">
+        <v>44211.800856481481</v>
+      </c>
+      <c r="L42">
+        <v>0.16</v>
+      </c>
+      <c r="M42">
+        <v>2.54</v>
+      </c>
+      <c r="N42" t="s">
+        <v>258</v>
+      </c>
+      <c r="O42" t="s">
+        <v>255</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>30656680</v>
+      </c>
+      <c r="B43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" t="s">
+        <v>232</v>
+      </c>
+      <c r="I43" s="1">
+        <v>44211.688391203701</v>
+      </c>
+      <c r="J43" s="1">
+        <v>44211.695185185185</v>
+      </c>
+      <c r="K43" s="1">
+        <v>44211.795497685183</v>
+      </c>
+      <c r="L43">
+        <v>0.16</v>
+      </c>
+      <c r="M43">
+        <v>2.41</v>
+      </c>
+      <c r="N43" t="s">
+        <v>258</v>
+      </c>
+      <c r="O43" t="s">
+        <v>255</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>30656681</v>
+      </c>
+      <c r="B44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>300</v>
+      </c>
+      <c r="G44" t="s">
+        <v>254</v>
+      </c>
+      <c r="H44" t="s">
+        <v>233</v>
+      </c>
+      <c r="I44" s="1">
+        <v>44211.688391203701</v>
+      </c>
+      <c r="J44" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="K44" s="1">
+        <v>44211.799768518518</v>
+      </c>
+      <c r="L44">
+        <v>0.17</v>
+      </c>
+      <c r="M44">
+        <v>2.5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>258</v>
+      </c>
+      <c r="O44" t="s">
+        <v>255</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>30656683</v>
+      </c>
+      <c r="B45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" t="s">
+        <v>254</v>
+      </c>
+      <c r="H45" t="s">
+        <v>234</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44211.688402777778</v>
+      </c>
+      <c r="J45" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="K45" s="1">
+        <v>44211.803402777776</v>
+      </c>
+      <c r="L45">
+        <v>0.17</v>
+      </c>
+      <c r="M45">
+        <v>2.59</v>
+      </c>
+      <c r="N45" t="s">
+        <v>284</v>
+      </c>
+      <c r="O45" t="s">
+        <v>255</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>30656685</v>
+      </c>
+      <c r="B46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>74</v>
+      </c>
+      <c r="G46" t="s">
+        <v>254</v>
+      </c>
+      <c r="H46" t="s">
+        <v>235</v>
+      </c>
+      <c r="I46" s="1">
+        <v>44211.688402777778</v>
+      </c>
+      <c r="J46" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="K46" s="1">
+        <v>44211.794988425929</v>
+      </c>
+      <c r="L46">
+        <v>0.17</v>
+      </c>
+      <c r="M46">
+        <v>2.39</v>
+      </c>
+      <c r="N46" t="s">
+        <v>279</v>
+      </c>
+      <c r="O46" t="s">
+        <v>255</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>30656687</v>
+      </c>
+      <c r="B47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" t="s">
+        <v>254</v>
+      </c>
+      <c r="H47" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" s="1">
+        <v>44211.688414351855</v>
+      </c>
+      <c r="J47" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="K47" s="1">
+        <v>44211.765266203707</v>
+      </c>
+      <c r="L47">
+        <v>0.17</v>
+      </c>
+      <c r="M47">
+        <v>1.67</v>
+      </c>
+      <c r="N47" t="s">
+        <v>302</v>
+      </c>
+      <c r="O47" t="s">
+        <v>255</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>30656689</v>
+      </c>
+      <c r="B48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>254</v>
+      </c>
+      <c r="H48" t="s">
+        <v>237</v>
+      </c>
+      <c r="I48" s="1">
+        <v>44211.688414351855</v>
+      </c>
+      <c r="J48" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="K48" s="1">
+        <v>44211.776666666665</v>
+      </c>
+      <c r="L48">
+        <v>0.17</v>
+      </c>
+      <c r="M48">
+        <v>1.95</v>
+      </c>
+      <c r="N48" t="s">
+        <v>303</v>
+      </c>
+      <c r="O48" t="s">
+        <v>255</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>30656691</v>
+      </c>
+      <c r="B49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" t="s">
+        <v>238</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44211.688425925924</v>
+      </c>
+      <c r="J49" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="K49" s="1">
+        <v>44211.742662037039</v>
+      </c>
+      <c r="L49">
+        <v>0.17</v>
+      </c>
+      <c r="M49">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N49" t="s">
+        <v>258</v>
+      </c>
+      <c r="O49" t="s">
+        <v>255</v>
+      </c>
+      <c r="P49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>30656693</v>
+      </c>
+      <c r="B50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s">
+        <v>254</v>
+      </c>
+      <c r="H50" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" s="1">
+        <v>44211.688425925924</v>
+      </c>
+      <c r="J50" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="K50" s="1">
+        <v>44211.742893518516</v>
+      </c>
+      <c r="L50">
+        <v>0.17</v>
+      </c>
+      <c r="M50">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N50" t="s">
+        <v>274</v>
+      </c>
+      <c r="O50" t="s">
+        <v>255</v>
+      </c>
+      <c r="P50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>30656695</v>
+      </c>
+      <c r="B51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" t="s">
+        <v>254</v>
+      </c>
+      <c r="H51" t="s">
+        <v>240</v>
+      </c>
+      <c r="I51" s="1">
+        <v>44211.688437500001</v>
+      </c>
+      <c r="J51" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="K51" s="1">
+        <v>44211.892962962964</v>
+      </c>
+      <c r="L51">
+        <v>0.17</v>
+      </c>
+      <c r="M51">
+        <v>4.74</v>
+      </c>
+      <c r="N51" t="s">
+        <v>304</v>
+      </c>
+      <c r="O51" t="s">
+        <v>255</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>30656697</v>
+      </c>
+      <c r="B52" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>283</v>
+      </c>
+      <c r="G52" t="s">
+        <v>254</v>
+      </c>
+      <c r="H52" t="s">
+        <v>244</v>
+      </c>
+      <c r="I52" s="1">
+        <v>44211.688437500001</v>
+      </c>
+      <c r="J52" s="1">
+        <v>44211.695520833331</v>
+      </c>
+      <c r="K52" s="1">
+        <v>44211.726898148147</v>
+      </c>
+      <c r="L52">
+        <v>0.17</v>
+      </c>
+      <c r="M52">
+        <v>0.75</v>
+      </c>
+      <c r="N52" t="s">
+        <v>258</v>
+      </c>
+      <c r="O52" t="s">
+        <v>255</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>30652246</v>
+      </c>
+      <c r="B54" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>254</v>
+      </c>
+      <c r="H54" t="s">
+        <v>218</v>
+      </c>
+      <c r="I54" s="1">
+        <v>44211.514699074076</v>
+      </c>
+      <c r="J54" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K54" s="1">
+        <v>44211.962222222224</v>
+      </c>
+      <c r="L54">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M54">
+        <v>9.6</v>
+      </c>
+      <c r="N54" t="s">
+        <v>131</v>
+      </c>
+      <c r="O54" t="s">
+        <v>255</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>30652248</v>
+      </c>
+      <c r="B55" t="s">
+        <v>307</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" t="s">
+        <v>254</v>
+      </c>
+      <c r="H55" t="s">
+        <v>219</v>
+      </c>
+      <c r="I55" s="1">
+        <v>44211.514699074076</v>
+      </c>
+      <c r="J55" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K55" s="1">
+        <v>44211.967604166668</v>
+      </c>
+      <c r="L55">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M55">
+        <v>9.73</v>
+      </c>
+      <c r="N55" t="s">
+        <v>276</v>
+      </c>
+      <c r="O55" t="s">
+        <v>255</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>30652250</v>
+      </c>
+      <c r="B56" t="s">
+        <v>307</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s">
+        <v>254</v>
+      </c>
+      <c r="H56" t="s">
+        <v>220</v>
+      </c>
+      <c r="I56" s="1">
+        <v>44211.514710648145</v>
+      </c>
+      <c r="J56" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K56" s="1">
+        <v>44211.895949074074</v>
+      </c>
+      <c r="L56">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M56">
+        <v>8.01</v>
+      </c>
+      <c r="N56" t="s">
+        <v>260</v>
+      </c>
+      <c r="O56" t="s">
+        <v>255</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>30652252</v>
+      </c>
+      <c r="B57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" t="s">
+        <v>277</v>
+      </c>
+      <c r="G57" t="s">
+        <v>254</v>
+      </c>
+      <c r="H57" t="s">
+        <v>221</v>
+      </c>
+      <c r="I57" s="1">
+        <v>44211.514710648145</v>
+      </c>
+      <c r="J57" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K57" s="1">
+        <v>44211.87771990741</v>
+      </c>
+      <c r="L57">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M57">
+        <v>7.57</v>
+      </c>
+      <c r="N57" t="s">
+        <v>278</v>
+      </c>
+      <c r="O57" t="s">
+        <v>255</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>30652254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" t="s">
+        <v>222</v>
+      </c>
+      <c r="I58" s="1">
+        <v>44211.514710648145</v>
+      </c>
+      <c r="J58" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K58" s="1">
+        <v>44211.867824074077</v>
+      </c>
+      <c r="L58">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M58">
+        <v>7.34</v>
+      </c>
+      <c r="N58" t="s">
+        <v>278</v>
+      </c>
+      <c r="O58" t="s">
+        <v>255</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>30652256</v>
+      </c>
+      <c r="B59" t="s">
+        <v>307</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s">
+        <v>254</v>
+      </c>
+      <c r="H59" t="s">
+        <v>223</v>
+      </c>
+      <c r="I59" s="1">
+        <v>44211.514722222222</v>
+      </c>
+      <c r="J59" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K59" s="1">
+        <v>44211.862881944442</v>
+      </c>
+      <c r="L59">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M59">
+        <v>7.22</v>
+      </c>
+      <c r="N59" t="s">
+        <v>278</v>
+      </c>
+      <c r="O59" t="s">
+        <v>255</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>30652258</v>
+      </c>
+      <c r="B60" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" t="s">
+        <v>254</v>
+      </c>
+      <c r="H60" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" s="1">
+        <v>44211.514722222222</v>
+      </c>
+      <c r="J60" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K60" s="1">
+        <v>44211.837152777778</v>
+      </c>
+      <c r="L60">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M60">
+        <v>6.6</v>
+      </c>
+      <c r="N60" t="s">
+        <v>278</v>
+      </c>
+      <c r="O60" t="s">
+        <v>255</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>30652260</v>
+      </c>
+      <c r="B61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" t="s">
+        <v>254</v>
+      </c>
+      <c r="H61" t="s">
+        <v>225</v>
+      </c>
+      <c r="I61" s="1">
+        <v>44211.514733796299</v>
+      </c>
+      <c r="J61" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K61" s="1">
+        <v>44211.806643518517</v>
+      </c>
+      <c r="L61">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M61">
+        <v>5.87</v>
+      </c>
+      <c r="N61" t="s">
+        <v>260</v>
+      </c>
+      <c r="O61" t="s">
+        <v>255</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>30652262</v>
+      </c>
+      <c r="B62" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s">
+        <v>254</v>
+      </c>
+      <c r="H62" t="s">
+        <v>226</v>
+      </c>
+      <c r="I62" s="1">
+        <v>44211.514733796299</v>
+      </c>
+      <c r="J62" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K62" s="1">
+        <v>44211.77884259259</v>
+      </c>
+      <c r="L62">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M62">
+        <v>5.2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>278</v>
+      </c>
+      <c r="O62" t="s">
+        <v>255</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>30652264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>307</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" t="s">
+        <v>254</v>
+      </c>
+      <c r="H63" t="s">
+        <v>227</v>
+      </c>
+      <c r="I63" s="1">
+        <v>44211.514745370368</v>
+      </c>
+      <c r="J63" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K63" s="1">
+        <v>44211.798495370371</v>
+      </c>
+      <c r="L63">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M63">
+        <v>5.67</v>
+      </c>
+      <c r="N63" t="s">
+        <v>279</v>
+      </c>
+      <c r="O63" t="s">
+        <v>255</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>30652266</v>
+      </c>
+      <c r="B64" t="s">
+        <v>307</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s">
+        <v>254</v>
+      </c>
+      <c r="H64" t="s">
+        <v>228</v>
+      </c>
+      <c r="I64" s="1">
+        <v>44211.514745370368</v>
+      </c>
+      <c r="J64" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K64" s="1">
+        <v>44211.797118055554</v>
+      </c>
+      <c r="L64">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M64">
+        <v>5.64</v>
+      </c>
+      <c r="N64" t="s">
+        <v>260</v>
+      </c>
+      <c r="O64" t="s">
+        <v>255</v>
+      </c>
+      <c r="P64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>30652267</v>
+      </c>
+      <c r="B65" t="s">
+        <v>307</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" t="s">
+        <v>254</v>
+      </c>
+      <c r="H65" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" s="1">
+        <v>44211.514756944445</v>
+      </c>
+      <c r="J65" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K65" s="1">
+        <v>44211.793622685182</v>
+      </c>
+      <c r="L65">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M65">
+        <v>5.55</v>
+      </c>
+      <c r="N65" t="s">
+        <v>260</v>
+      </c>
+      <c r="O65" t="s">
+        <v>255</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>30652269</v>
+      </c>
+      <c r="B66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" t="s">
+        <v>254</v>
+      </c>
+      <c r="H66" t="s">
+        <v>230</v>
+      </c>
+      <c r="I66" s="1">
+        <v>44211.514756944445</v>
+      </c>
+      <c r="J66" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K66" s="1">
+        <v>44211.741539351853</v>
+      </c>
+      <c r="L66">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M66">
+        <v>4.3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>278</v>
+      </c>
+      <c r="O66" t="s">
+        <v>255</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="25">
+        <v>30652271</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C67" s="26">
+        <v>1</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I67" s="27">
+        <v>44211.514768518522</v>
+      </c>
+      <c r="J67" s="27">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K67" s="27">
+        <v>44211.566018518519</v>
+      </c>
+      <c r="L67" s="26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M67" s="26">
+        <v>0.09</v>
+      </c>
+      <c r="N67" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="O67" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="P67" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>30784608</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" t="s">
+        <v>254</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="I68" s="1">
+        <v>44214.678888888891</v>
+      </c>
+      <c r="J68" s="1">
+        <v>44214.678912037038</v>
+      </c>
+      <c r="K68" s="1">
+        <v>44214.872777777775</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="N68" t="s">
+        <v>256</v>
+      </c>
+      <c r="O68" t="s">
+        <v>255</v>
+      </c>
+      <c r="P68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>30652273</v>
+      </c>
+      <c r="B69" t="s">
+        <v>307</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>282</v>
+      </c>
+      <c r="G69" t="s">
+        <v>254</v>
+      </c>
+      <c r="H69" t="s">
+        <v>232</v>
+      </c>
+      <c r="I69" s="1">
+        <v>44211.514768518522</v>
+      </c>
+      <c r="J69" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K69" s="1">
+        <v>44211.710069444445</v>
+      </c>
+      <c r="L69">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M69">
+        <v>3.55</v>
+      </c>
+      <c r="N69" t="s">
+        <v>260</v>
+      </c>
+      <c r="O69" t="s">
+        <v>255</v>
+      </c>
+      <c r="P69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>30652275</v>
+      </c>
+      <c r="B70" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>283</v>
+      </c>
+      <c r="G70" t="s">
+        <v>254</v>
+      </c>
+      <c r="H70" t="s">
+        <v>233</v>
+      </c>
+      <c r="I70" s="1">
+        <v>44211.514780092592</v>
+      </c>
+      <c r="J70" s="1">
+        <v>44211.562175925923</v>
+      </c>
+      <c r="K70" s="1">
+        <v>44211.715266203704</v>
+      </c>
+      <c r="L70">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M70">
+        <v>3.67</v>
+      </c>
+      <c r="N70" t="s">
+        <v>284</v>
+      </c>
+      <c r="O70" t="s">
+        <v>255</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>30652277</v>
+      </c>
+      <c r="B71" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
+        <v>285</v>
+      </c>
+      <c r="G71" t="s">
+        <v>254</v>
+      </c>
+      <c r="H71" t="s">
+        <v>234</v>
+      </c>
+      <c r="I71" s="1">
+        <v>44211.514780092592</v>
+      </c>
+      <c r="J71" s="1">
+        <v>44211.563217592593</v>
+      </c>
+      <c r="K71" s="1">
+        <v>44211.763437499998</v>
+      </c>
+      <c r="L71">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="M71">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="N71" t="s">
+        <v>286</v>
+      </c>
+      <c r="O71" t="s">
+        <v>255</v>
+      </c>
+      <c r="P71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>30652279</v>
+      </c>
+      <c r="B72" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72" t="s">
+        <v>235</v>
+      </c>
+      <c r="I72" s="1">
+        <v>44211.514791666668</v>
+      </c>
+      <c r="J72" s="1">
+        <v>44211.56391203704</v>
+      </c>
+      <c r="K72" s="1">
+        <v>44211.707951388889</v>
+      </c>
+      <c r="L72">
+        <v>1.18</v>
+      </c>
+      <c r="M72">
+        <v>3.46</v>
+      </c>
+      <c r="N72" t="s">
+        <v>260</v>
+      </c>
+      <c r="O72" t="s">
+        <v>255</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>30652281</v>
+      </c>
+      <c r="B73" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>252</v>
+      </c>
+      <c r="G73" t="s">
+        <v>254</v>
+      </c>
+      <c r="H73" t="s">
+        <v>236</v>
+      </c>
+      <c r="I73" s="1">
+        <v>44211.514791666668</v>
+      </c>
+      <c r="J73" s="1">
+        <v>44211.564791666664</v>
+      </c>
+      <c r="K73" s="1">
+        <v>44211.689629629633</v>
+      </c>
+      <c r="L73">
+        <v>1.2</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>97</v>
+      </c>
+      <c r="O73" t="s">
+        <v>255</v>
+      </c>
+      <c r="P73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>30652283</v>
+      </c>
+      <c r="B74" t="s">
+        <v>307</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>287</v>
+      </c>
+      <c r="G74" t="s">
+        <v>254</v>
+      </c>
+      <c r="H74" t="s">
+        <v>237</v>
+      </c>
+      <c r="I74" s="1">
+        <v>44211.514803240738</v>
+      </c>
+      <c r="J74" s="1">
+        <v>44211.565138888887</v>
+      </c>
+      <c r="K74" s="1">
+        <v>44211.712939814817</v>
+      </c>
+      <c r="L74">
+        <v>1.21</v>
+      </c>
+      <c r="M74">
+        <v>3.55</v>
+      </c>
+      <c r="N74" t="s">
+        <v>256</v>
+      </c>
+      <c r="O74" t="s">
+        <v>255</v>
+      </c>
+      <c r="P74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>30652285</v>
+      </c>
+      <c r="B75" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>253</v>
+      </c>
+      <c r="G75" t="s">
+        <v>254</v>
+      </c>
+      <c r="H75" t="s">
+        <v>238</v>
+      </c>
+      <c r="I75" s="1">
+        <v>44211.514803240738</v>
+      </c>
+      <c r="J75" s="1">
+        <v>44211.565648148149</v>
+      </c>
+      <c r="K75" s="1">
+        <v>44211.664826388886</v>
+      </c>
+      <c r="L75">
+        <v>1.22</v>
+      </c>
+      <c r="M75">
+        <v>2.38</v>
+      </c>
+      <c r="N75" t="s">
+        <v>259</v>
+      </c>
+      <c r="O75" t="s">
+        <v>255</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>30652287</v>
+      </c>
+      <c r="B76" t="s">
+        <v>307</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>254</v>
+      </c>
+      <c r="H76" t="s">
+        <v>239</v>
+      </c>
+      <c r="I76" s="1">
+        <v>44211.514814814815</v>
+      </c>
+      <c r="J76" s="1">
+        <v>44211.566342592596</v>
+      </c>
+      <c r="K76" s="1">
+        <v>44211.632002314815</v>
+      </c>
+      <c r="L76">
+        <v>1.24</v>
+      </c>
+      <c r="M76">
+        <v>1.58</v>
+      </c>
+      <c r="N76" t="s">
+        <v>260</v>
+      </c>
+      <c r="O76" t="s">
+        <v>255</v>
+      </c>
+      <c r="P76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>30652289</v>
+      </c>
+      <c r="B77" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>288</v>
+      </c>
+      <c r="G77" t="s">
+        <v>254</v>
+      </c>
+      <c r="H77" t="s">
+        <v>240</v>
+      </c>
+      <c r="I77" s="1">
+        <v>44211.514814814815</v>
+      </c>
+      <c r="J77" s="1">
+        <v>44211.567048611112</v>
+      </c>
+      <c r="K77" s="1">
+        <v>44211.845347222225</v>
+      </c>
+      <c r="L77">
+        <v>1.25</v>
+      </c>
+      <c r="M77">
+        <v>6.68</v>
+      </c>
+      <c r="N77" t="s">
+        <v>289</v>
+      </c>
+      <c r="O77" t="s">
+        <v>255</v>
+      </c>
+      <c r="P77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>30652291</v>
+      </c>
+      <c r="B78" t="s">
+        <v>307</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>67</v>
+      </c>
+      <c r="G78" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" t="s">
+        <v>244</v>
+      </c>
+      <c r="I78" s="1">
+        <v>44211.514814814815</v>
+      </c>
+      <c r="J78" s="1">
+        <v>44211.56931712963</v>
+      </c>
+      <c r="K78" s="1">
+        <v>44211.609675925924</v>
+      </c>
+      <c r="L78">
+        <v>1.31</v>
+      </c>
+      <c r="M78">
+        <v>0.97</v>
+      </c>
+      <c r="N78" t="s">
+        <v>261</v>
+      </c>
+      <c r="O78" t="s">
+        <v>255</v>
+      </c>
+      <c r="P78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P79"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/nanopore_pipeline_type1/data/qreportデータ.xlsx
+++ b/nanopore_pipeline_type1/data/qreportデータ.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="308">
   <si>
     <t>jobnumber</t>
   </si>
@@ -845,9 +845,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>singularity_medaka_cpu_mem32.sh</t>
   </si>
   <si>
@@ -855,9 +852,6 @@
   </si>
   <si>
     <t>32.0G</t>
-  </si>
-  <si>
-    <t>64.0G</t>
   </si>
   <si>
     <t>yc096i</t>
@@ -984,6 +978,10 @@
   </si>
   <si>
     <t>yc121i</t>
+  </si>
+  <si>
+    <t>yc128i</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3417,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N84" sqref="N84"/>
+    <sheetView topLeftCell="A129" workbookViewId="0">
+      <selection sqref="A1:H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11704,8 +11702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11777,8 +11775,8 @@
       <c r="C2">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
-        <v>263</v>
+      <c r="D2">
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -11787,10 +11785,10 @@
         <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I2" s="1">
         <v>44209.448194444441</v>
@@ -11808,10 +11806,10 @@
         <v>89.83</v>
       </c>
       <c r="N2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O2" t="s">
         <v>265</v>
-      </c>
-      <c r="O2" t="s">
-        <v>266</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -11819,46 +11817,46 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3">
-        <v>30652160</v>
+        <v>30787143</v>
       </c>
       <c r="C3">
         <v>152</v>
       </c>
-      <c r="D3" t="s">
-        <v>263</v>
+      <c r="D3">
+        <v>100</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="G3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44214.722592592596</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44214.722939814812</v>
+      </c>
+      <c r="K3" s="1">
+        <v>44219.264166666668</v>
+      </c>
+      <c r="L3">
+        <v>0.01</v>
+      </c>
+      <c r="M3">
+        <v>108.99</v>
+      </c>
+      <c r="N3" t="s">
         <v>264</v>
       </c>
-      <c r="H3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I3" s="1">
-        <v>44211.513796296298</v>
-      </c>
-      <c r="J3" s="1">
-        <v>44211.562175925923</v>
-      </c>
-      <c r="K3" s="1">
-        <v>44212.760879629626</v>
-      </c>
-      <c r="L3">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="M3">
-        <v>28.77</v>
-      </c>
-      <c r="N3" t="s">
-        <v>267</v>
-      </c>
       <c r="O3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P3">
         <v>2</v>
@@ -11881,7 +11879,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G5" t="s">
         <v>254</v>
@@ -11905,7 +11903,7 @@
         <v>9.58</v>
       </c>
       <c r="N5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O5" t="s">
         <v>255</v>
@@ -11931,7 +11929,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
         <v>254</v>
@@ -12081,7 +12079,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
         <v>254</v>
@@ -12105,7 +12103,7 @@
         <v>6.9</v>
       </c>
       <c r="N9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O9" t="s">
         <v>255</v>
@@ -12255,7 +12253,7 @@
         <v>4.74</v>
       </c>
       <c r="N12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O12" t="s">
         <v>255</v>
@@ -12355,7 +12353,7 @@
         <v>5.13</v>
       </c>
       <c r="N14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O14" t="s">
         <v>255</v>
@@ -12981,7 +12979,7 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
         <v>254</v>
@@ -13131,7 +13129,7 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
         <v>254</v>
@@ -13181,7 +13179,7 @@
         <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
         <v>254</v>
@@ -13231,7 +13229,7 @@
         <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
         <v>254</v>
@@ -13255,7 +13253,7 @@
         <v>5.34</v>
       </c>
       <c r="N32" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s">
         <v>255</v>
@@ -13281,7 +13279,7 @@
         <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G33" t="s">
         <v>254</v>
@@ -13305,7 +13303,7 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="N33" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s">
         <v>255</v>
@@ -13331,7 +13329,7 @@
         <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
         <v>254</v>
@@ -13355,7 +13353,7 @@
         <v>5.17</v>
       </c>
       <c r="N34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s">
         <v>255</v>
@@ -13381,7 +13379,7 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
         <v>254</v>
@@ -13405,7 +13403,7 @@
         <v>4.67</v>
       </c>
       <c r="N35" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s">
         <v>255</v>
@@ -13455,7 +13453,7 @@
         <v>4.24</v>
       </c>
       <c r="N36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O36" t="s">
         <v>255</v>
@@ -13505,7 +13503,7 @@
         <v>3.75</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s">
         <v>255</v>
@@ -13531,7 +13529,7 @@
         <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G38" t="s">
         <v>254</v>
@@ -13555,7 +13553,7 @@
         <v>4.09</v>
       </c>
       <c r="N38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O38" t="s">
         <v>255</v>
@@ -13581,7 +13579,7 @@
         <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G39" t="s">
         <v>254</v>
@@ -13631,7 +13629,7 @@
         <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G40" t="s">
         <v>254</v>
@@ -13681,7 +13679,7 @@
         <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G41" t="s">
         <v>254</v>
@@ -13831,7 +13829,7 @@
         <v>14</v>
       </c>
       <c r="F44" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G44" t="s">
         <v>254</v>
@@ -13905,7 +13903,7 @@
         <v>2.59</v>
       </c>
       <c r="N45" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O45" t="s">
         <v>255</v>
@@ -13955,7 +13953,7 @@
         <v>2.39</v>
       </c>
       <c r="N46" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O46" t="s">
         <v>255</v>
@@ -13981,7 +13979,7 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G47" t="s">
         <v>254</v>
@@ -14005,7 +14003,7 @@
         <v>1.67</v>
       </c>
       <c r="N47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O47" t="s">
         <v>255</v>
@@ -14055,7 +14053,7 @@
         <v>1.95</v>
       </c>
       <c r="N48" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O48" t="s">
         <v>255</v>
@@ -14155,7 +14153,7 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="N50" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O50" t="s">
         <v>255</v>
@@ -14205,7 +14203,7 @@
         <v>4.74</v>
       </c>
       <c r="N51" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O51" t="s">
         <v>255</v>
@@ -14231,7 +14229,7 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G52" t="s">
         <v>254</v>
@@ -14274,7 +14272,7 @@
         <v>30652246</v>
       </c>
       <c r="B54" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -14324,7 +14322,7 @@
         <v>30652248</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -14360,7 +14358,7 @@
         <v>9.73</v>
       </c>
       <c r="N55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O55" t="s">
         <v>255</v>
@@ -14374,7 +14372,7 @@
         <v>30652250</v>
       </c>
       <c r="B56" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -14424,7 +14422,7 @@
         <v>30652252</v>
       </c>
       <c r="B57" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -14436,7 +14434,7 @@
         <v>14</v>
       </c>
       <c r="F57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G57" t="s">
         <v>254</v>
@@ -14460,7 +14458,7 @@
         <v>7.57</v>
       </c>
       <c r="N57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O57" t="s">
         <v>255</v>
@@ -14474,7 +14472,7 @@
         <v>30652254</v>
       </c>
       <c r="B58" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -14510,7 +14508,7 @@
         <v>7.34</v>
       </c>
       <c r="N58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O58" t="s">
         <v>255</v>
@@ -14524,7 +14522,7 @@
         <v>30652256</v>
       </c>
       <c r="B59" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -14560,7 +14558,7 @@
         <v>7.22</v>
       </c>
       <c r="N59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O59" t="s">
         <v>255</v>
@@ -14574,7 +14572,7 @@
         <v>30652258</v>
       </c>
       <c r="B60" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -14610,7 +14608,7 @@
         <v>6.6</v>
       </c>
       <c r="N60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O60" t="s">
         <v>255</v>
@@ -14624,7 +14622,7 @@
         <v>30652260</v>
       </c>
       <c r="B61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -14674,7 +14672,7 @@
         <v>30652262</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -14710,7 +14708,7 @@
         <v>5.2</v>
       </c>
       <c r="N62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O62" t="s">
         <v>255</v>
@@ -14724,7 +14722,7 @@
         <v>30652264</v>
       </c>
       <c r="B63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -14760,7 +14758,7 @@
         <v>5.67</v>
       </c>
       <c r="N63" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O63" t="s">
         <v>255</v>
@@ -14774,7 +14772,7 @@
         <v>30652266</v>
       </c>
       <c r="B64" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -14824,7 +14822,7 @@
         <v>30652267</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -14874,7 +14872,7 @@
         <v>30652269</v>
       </c>
       <c r="B66" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -14886,7 +14884,7 @@
         <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G66" t="s">
         <v>254</v>
@@ -14910,7 +14908,7 @@
         <v>4.3</v>
       </c>
       <c r="N66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O66" t="s">
         <v>255</v>
@@ -14924,7 +14922,7 @@
         <v>30652271</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C67" s="26">
         <v>1</v>
@@ -14960,7 +14958,7 @@
         <v>0.09</v>
       </c>
       <c r="N67" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O67" s="26" t="s">
         <v>255</v>
@@ -14974,7 +14972,7 @@
         <v>30784608</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -14986,7 +14984,7 @@
         <v>14</v>
       </c>
       <c r="F68" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G68" t="s">
         <v>254</v>
@@ -15024,7 +15022,7 @@
         <v>30652273</v>
       </c>
       <c r="B69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -15036,7 +15034,7 @@
         <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G69" t="s">
         <v>254</v>
@@ -15074,7 +15072,7 @@
         <v>30652275</v>
       </c>
       <c r="B70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -15086,7 +15084,7 @@
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G70" t="s">
         <v>254</v>
@@ -15110,7 +15108,7 @@
         <v>3.67</v>
       </c>
       <c r="N70" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O70" t="s">
         <v>255</v>
@@ -15124,7 +15122,7 @@
         <v>30652277</v>
       </c>
       <c r="B71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -15136,7 +15134,7 @@
         <v>22</v>
       </c>
       <c r="F71" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G71" t="s">
         <v>254</v>
@@ -15160,7 +15158,7 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="N71" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O71" t="s">
         <v>255</v>
@@ -15174,7 +15172,7 @@
         <v>30652279</v>
       </c>
       <c r="B72" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -15224,7 +15222,7 @@
         <v>30652281</v>
       </c>
       <c r="B73" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -15274,7 +15272,7 @@
         <v>30652283</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -15286,7 +15284,7 @@
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G74" t="s">
         <v>254</v>
@@ -15324,7 +15322,7 @@
         <v>30652285</v>
       </c>
       <c r="B75" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -15374,7 +15372,7 @@
         <v>30652287</v>
       </c>
       <c r="B76" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -15424,7 +15422,7 @@
         <v>30652289</v>
       </c>
       <c r="B77" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -15436,7 +15434,7 @@
         <v>22</v>
       </c>
       <c r="F77" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G77" t="s">
         <v>254</v>
@@ -15460,7 +15458,7 @@
         <v>6.68</v>
       </c>
       <c r="N77" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O77" t="s">
         <v>255</v>
@@ -15474,7 +15472,7 @@
         <v>30652291</v>
       </c>
       <c r="B78" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C78">
         <v>0</v>
